--- a/Normteile.xlsx
+++ b/Normteile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63217BE8-2D79-40A9-B0D0-B04C189688A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24603195-EC9C-4D6E-A9B8-51042BD5F807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{49E8F37F-9809-419E-A174-4D57AA7226B8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="100">
   <si>
     <t>Screw_DIN_7991_M5x14_v16.00.par</t>
   </si>
@@ -151,12 +151,6 @@
     <t>Screw_DIN_7991_M3x8_v16.00.par</t>
   </si>
   <si>
-    <t>Screw_DIN_7991_M4x45_v16.00.par</t>
-  </si>
-  <si>
-    <t>Screw_DIN_7991_M4x60_v16.00.par</t>
-  </si>
-  <si>
     <t>Screw_DIN_7991_M5x16_v16.00.par</t>
   </si>
   <si>
@@ -337,10 +331,10 @@
     <t>ISO 14580</t>
   </si>
   <si>
-    <t>in assembly ersetzen M5x45</t>
-  </si>
-  <si>
-    <t>in assembly ersetzen M5x60</t>
+    <t>Screw_DIN_7991_M5x45_v16.00.par</t>
+  </si>
+  <si>
+    <t>Screw_DIN_7991_M5x60_v16.00.par</t>
   </si>
 </sst>
 </file>
@@ -762,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A356557-599D-4055-ABD4-8E07B7A662D5}">
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="O84" sqref="O84"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,25 +767,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -834,19 +828,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F6" s="2">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -913,19 +907,19 @@
         <v>4</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F14">
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -936,19 +930,19 @@
         <v>132</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F15" s="4">
         <v>10</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -959,19 +953,19 @@
         <v>12</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F16" s="4">
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -982,19 +976,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F17" s="2">
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1005,19 +999,19 @@
         <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F18" s="4">
         <v>10</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1028,19 +1022,19 @@
         <v>6</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F19" s="7">
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1075,19 +1069,19 @@
         <v>2</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F23">
         <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1098,19 +1092,19 @@
         <v>4</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F24" s="8">
         <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1121,19 +1115,19 @@
         <v>2</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F25" s="2">
         <v>16</v>
       </c>
       <c r="G25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1144,19 +1138,19 @@
         <v>3</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F26" s="4">
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1167,19 +1161,19 @@
         <v>2</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F27" s="7">
         <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1190,19 +1184,19 @@
         <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F28" s="7">
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1277,19 +1271,19 @@
         <v>4</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F37" s="4">
         <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -1300,19 +1294,19 @@
         <v>2</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F38" s="8">
         <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -1323,19 +1317,19 @@
         <v>3</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F39" s="2">
         <v>16</v>
       </c>
       <c r="G39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -1346,19 +1340,19 @@
         <v>2</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F40" s="3">
         <v>8</v>
       </c>
       <c r="G40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -1369,65 +1363,65 @@
         <v>16</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F41" s="4">
         <v>10</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="B42" s="4">
         <v>11</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>91</v>
+        <v>78</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="F42">
         <v>45</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="B43" s="4">
         <v>2</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>91</v>
+        <v>78</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="F43">
         <v>60</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -1438,66 +1432,66 @@
         <v>9</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F44" s="8">
         <v>14</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B45" s="4">
         <v>9</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F45" s="2">
         <v>16</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J45" s="9"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B46" s="4">
         <v>16</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F46" s="3">
         <v>8</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -1508,94 +1502,94 @@
         <v>12</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F47" s="4">
         <v>10</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B48" s="4">
         <v>8</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F48" s="2">
         <v>16</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B49" s="4">
         <v>20</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F49" s="6">
         <v>6</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L49" s="11"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B50" s="4">
         <v>4</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F50" s="3">
         <v>8</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B51">
         <v>12</v>
@@ -1603,7 +1597,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B52" s="6">
         <v>1</v>
@@ -1611,88 +1605,88 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B53" s="4">
         <v>2</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F53" s="3">
         <v>8</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B54" s="4">
         <v>2</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F54" s="2">
         <v>16</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B55" s="4">
         <v>2</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F55" s="6">
         <v>6</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B56" s="4">
         <v>4</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F56">
         <v>35</v>
@@ -1700,180 +1694,180 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B57" s="4">
         <v>1</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F57" s="6">
         <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B58" s="4">
         <v>4</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F58" s="3">
         <v>8</v>
       </c>
       <c r="G58" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B59" s="4">
         <v>32</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F59" s="6">
         <v>6</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B60" s="4">
         <v>1</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F60" s="7">
         <v>12</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B61" s="4">
         <v>6</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F61" s="2">
         <v>16</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B62" s="4">
         <v>1</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F62" s="3">
         <v>8</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B63" s="4">
         <v>1</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F63">
         <v>5</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B64" s="4">
         <v>3</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F64" s="7">
         <v>12</v>
@@ -1881,19 +1875,19 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B65" s="4">
         <v>4</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F65">
         <v>6</v>
@@ -1901,7 +1895,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B66">
         <v>4</v>
@@ -1909,30 +1903,30 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B67" s="4">
         <v>8</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F67" s="3">
         <v>8</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B68">
         <v>4</v>
@@ -1940,7 +1934,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B69">
         <v>4</v>
@@ -1948,7 +1942,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B70" s="2">
         <v>3</v>
@@ -1956,7 +1950,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B71" s="3">
         <v>1</v>
@@ -1964,53 +1958,53 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B72" s="4">
         <v>1</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F72" s="6">
         <v>6</v>
       </c>
       <c r="G72" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B73" s="4">
         <v>3</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F73" s="3">
         <v>8</v>
       </c>
       <c r="G73" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B74" s="2">
         <v>1</v>
@@ -2018,7 +2012,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B75" s="2">
         <v>2</v>
@@ -2026,7 +2020,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B76" s="6">
         <v>1</v>
@@ -2034,7 +2028,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B77" s="3">
         <v>2</v>
@@ -2050,7 +2044,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B79" s="2">
         <v>4</v>
@@ -2066,7 +2060,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B81" s="3">
         <v>2</v>
@@ -2074,7 +2068,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B82" s="3">
         <v>2</v>
@@ -2082,42 +2076,42 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B83" s="4">
         <v>2</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F83" s="4">
         <v>10</v>
       </c>
       <c r="G83" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B84" s="4">
         <v>1</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F84">
         <v>20</v>
@@ -2125,19 +2119,19 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B85" s="4">
         <v>1</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F85" s="2">
         <v>16</v>

--- a/Normteile.xlsx
+++ b/Normteile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24603195-EC9C-4D6E-A9B8-51042BD5F807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24264CEB-7658-4D03-BD5C-7326EE466D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{49E8F37F-9809-419E-A174-4D57AA7226B8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="104">
   <si>
     <t>Screw_DIN_7991_M5x14_v16.00.par</t>
   </si>
@@ -335,6 +335,18 @@
   </si>
   <si>
     <t>Screw_DIN_7991_M5x60_v16.00.par</t>
+  </si>
+  <si>
+    <t>selbst herstellen</t>
+  </si>
+  <si>
+    <t>6x12</t>
+  </si>
+  <si>
+    <t>nicht verfügbar</t>
+  </si>
+  <si>
+    <t>3x10</t>
   </si>
 </sst>
 </file>
@@ -756,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A356557-599D-4055-ABD4-8E07B7A662D5}">
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -874,6 +886,9 @@
       <c r="B10" s="3">
         <v>4</v>
       </c>
+      <c r="G10" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -882,6 +897,9 @@
       <c r="B11" s="3">
         <v>4</v>
       </c>
+      <c r="G11" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -890,6 +908,9 @@
       <c r="B12" s="3">
         <v>8</v>
       </c>
+      <c r="G12" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -898,6 +919,9 @@
       <c r="B13" s="3">
         <v>4</v>
       </c>
+      <c r="G13" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -1230,6 +1254,9 @@
       <c r="B32" s="6">
         <v>8</v>
       </c>
+      <c r="G32" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
@@ -1238,6 +1265,9 @@
       <c r="B33" s="6">
         <v>4</v>
       </c>
+      <c r="G33" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
@@ -1602,6 +1632,9 @@
       <c r="B52" s="6">
         <v>1</v>
       </c>
+      <c r="G52" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
@@ -1955,6 +1988,9 @@
       <c r="B71" s="3">
         <v>1</v>
       </c>
+      <c r="G71" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
@@ -2025,6 +2061,9 @@
       <c r="B76" s="6">
         <v>1</v>
       </c>
+      <c r="G76" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
@@ -2033,6 +2072,9 @@
       <c r="B77" s="3">
         <v>2</v>
       </c>
+      <c r="G77" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
@@ -2057,6 +2099,9 @@
       <c r="B80" s="6">
         <v>2</v>
       </c>
+      <c r="G80" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
@@ -2065,6 +2110,9 @@
       <c r="B81" s="3">
         <v>2</v>
       </c>
+      <c r="G81" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
@@ -2072,6 +2120,9 @@
       </c>
       <c r="B82" s="3">
         <v>2</v>
+      </c>
+      <c r="G82" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">

--- a/Normteile.xlsx
+++ b/Normteile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24264CEB-7658-4D03-BD5C-7326EE466D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D073F1-D408-4623-A2DC-CDB872D3C37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{49E8F37F-9809-419E-A174-4D57AA7226B8}"/>
+    <workbookView xWindow="57480" yWindow="6105" windowWidth="29040" windowHeight="15720" xr2:uid="{49E8F37F-9809-419E-A174-4D57AA7226B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="104">
   <si>
     <t>Screw_DIN_7991_M5x14_v16.00.par</t>
   </si>
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A356557-599D-4055-ABD4-8E07B7A662D5}">
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -878,6 +878,9 @@
       <c r="B9" s="3">
         <v>4</v>
       </c>
+      <c r="G9" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -898,7 +901,7 @@
         <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">

--- a/Normteile.xlsx
+++ b/Normteile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D073F1-D408-4623-A2DC-CDB872D3C37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C7A7B9-E2EE-4C45-91AB-070B513AB5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="6105" windowWidth="29040" windowHeight="15720" xr2:uid="{49E8F37F-9809-419E-A174-4D57AA7226B8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{49E8F37F-9809-419E-A174-4D57AA7226B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="104">
   <si>
     <t>Screw_DIN_7991_M5x14_v16.00.par</t>
   </si>
@@ -769,7 +769,7 @@
   <dimension ref="A1:L85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -912,7 +912,7 @@
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -921,9 +921,6 @@
       </c>
       <c r="B13" s="3">
         <v>4</v>
-      </c>
-      <c r="G13" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
